--- a/1 기능 정의/project05 - 요구사항 정의서 - 서희.xlsx
+++ b/1 기능 정의/project05 - 요구사항 정의서 - 서희.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HYEONTAE\Desktop\e-Zone\1 기능 정의\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goddn\Desktop\e-Zone\1 기능 정의\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36370A01-7457-4E20-9823-46F9DED5BCE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항정의서" sheetId="1" r:id="rId1"/>
     <sheet name="조원 역할 분배" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">요구사항정의서!$A$7:$P$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">요구사항정의서!$A$7:$P$25</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="96">
   <si>
     <t>현태</t>
   </si>
@@ -242,37 +243,231 @@
     <t>KB – M – 013</t>
   </si>
   <si>
-    <t>YS – P – 014
-YS – P – 015</t>
+    <t>로그인</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>YS – M – 014
-YS – M – 015</t>
+    <t>회원가입</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>HT – P – 021</t>
+    <t>마이페이지</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>SH – P – 022</t>
+    <t>내 예약</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>KB – P – 026
-KB – P – 027</t>
+    <t>메인페이지</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>HJ – P – 028
-HJ – P – 029
-HJ – P – 030</t>
+    <t>- 이메일, 비밀번호 입력시 로그인</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 회원탈퇴, 프로필사진,  닉네임, 이메일 주소, 휴대폰 번호 인증, 등록, 수정</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 캐러셀 배너, 추천 행사(기본 이미지 3장 노출, 더보기 버튼 클릭시 3개씩 증가), 대관시설(대여 시설 모두 노출)
+- 검색(행사명 검색)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목, 부제목, 공간 소개, 지도, 예약 날짜, 예약 시간, 결제하기</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>대관시설 소개</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>행사 소개</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약 공간 소개, 예약 정보(시간, 비용), 예약자 정보 입력 후 무통장 입금 계좌번호 표시</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제페이지(대관시설)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제페이지(행사)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목, 부제목, 행사 소개, 자리 선택, 인원 선택, 결제하기</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원관리</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>대관시설 관리</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬라이드 배너관리</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항관리</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAQ관리</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>행사 관리</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬라이드 타이틀, 이미지, 업로드 일시</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>행사소개(닉네임, 휴대폰 번호 등), 예약정보(자리, 인원, 비용), 예약자 정보 입력후 무통장 입금 계좌번호 표시</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴 사이드바</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐러셀 배너 클릭시 해당 행사 및 대관 시설의 상세 페이지로 이동
+추천행사는 기본적으로 3장이 이미지, 행사명, 부제목 텍스와 함께 표시하되 더보기 클릭시 3개씩 증가
+대관시설은 4군데 모두 노출하고 3장-1장으로 캐러셀 이동 가능하게 함
+검색은 최상단에 위치하여 행사명을 검색 할 수 있게함</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일 주소 불일치시 '이메일 주소가 일치하지 않습니다' alert 표시
+비밀번호 불일치시 '비밀번호가 일치 하지 않습니다' alerlt표시
+둘다 일치하지 않을 경우 이메일 주소 불일치시의 alert를 출력
+이메일 주소 입력란에 @ 미입력시 '이메일 주소 양식이 맞지 않습니다' alert 표시</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 닉네임 중복 검사, 이메일 중복 검사, 비밀번호, 비밀번호 확인, 약관동의
+- 이메일 인증 메일 발송</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>닉네임 중복 검사 버튼 클릭시 중복되는 닉네임 존재 여부를 닉네임 입력 칸 하단에 붉은 색 표시
+이메일 중복 검사 버튼 클릭시 중복 되는 이메일 존재 여부를 이메일 입력 칸 하단에 붉은 색 표시
+비밀번호/비밀번호 확인 불일치시 비밀번호 확인 하단에 '비밀번호화 비밀번호 확인이 일치 하지 않습니다' 붉은 색 표시
+휴대폰 번호 인증 버튼 클릭시 문자 발송
+submit후 이메일 인증 메일 발송</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 탈퇴시 회원 정보는 3년간 보관 됩니다 메시지 페이지로 이동
+프로필 사진, 닉네임은 인증 없이 수정 가능하며 이메일 주소, 휴대폰 번호는 인증후 수정 가능</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 대관 예약리스트/ 참여 행사 리스트
+- 예약 대관시설명/행사명, 대관일시/행사일시, 가격 표시
+- 예약 취소 버튼</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>대관 예약리스트와 참여 행사 리스트는 Tab으로 구분
+예약 대관시설명/행사명, 대관일시/행사일시, 가격 표시 옆에 예약 취소 버튼 클릭시 예약을 취소하시겠습니까? 팝업이 뜬후 확인 클릭시 예약이 취소 되었습니다 alert 표시</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보 확인 후 우측 사이드바에 예약 정보를 선택한후 결제하기 페이지로 이동가능</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약 공간 소개, 예약 정보를 표시한 후 결제 확인을 누르면 무통장 입금 계좌번호와 예금주명, 입금 기한 안내 페이지로 이동</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약 행사 소개, 예약 정보를 표시한 후 결제 확인을 누르면 무통장 입금 계좌번호와 예금주명, 입금 기한 안내 페이지로 이동</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 아이디, 비밀번호 입력</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자페이지 주소 입력시 가장 먼저 보이는 페이지로 관리자 아이디, 비밀번호 입력시 메인페이지로 이동
+로그인 정보 불일치시 '아이디가 존재하지 않습니다', '비밀번호가 일치 하지 않습니다' alert</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원관리, 행사관리, 대관시설 관리, 슬라이드배너 관리, 공지사항 관리, FAQ관리 메뉴 클릭시 해당 페이지로 이동하는 메뉴 사이드바</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 정보, 회원 계정 상태 변경</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원의 마이페이지에 있는 회원 개인정보를 표시하고 영구정지,일주일계정정지, 한달 계정정지, 정상이용로 계정 상태를 변경할수 있게함</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>행사 소개 CRUD</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>대관 시설 소개 CRUD</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>대관시설명, 예약내역, 지난 대관 내역, 대관 취소 및 환불을 등록, 수정, 삭제</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>행사명, 이미지, 텍스트, 시간, 참여자 목록, 참여자 좌석 배치, 남은 좌석수, 예약 취소 및 환불을 등록, 수정, 삭제</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬라이드 타이틀, 이미지, 업로드 일시를 등록하되 타이틀은 관리자 페이지에서만 확인 가능</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 CRUD</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAQ CRUD</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>글 수정, 삭제, 등록과 공지사항중 중요 공지사항을 최상단 노출 게시물으로 선택하면 사용자 페이지의 공지사항 최상단에 등록</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>글 수정, 삭제, 등록과 게시글의 순서를 변경가능</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -351,6 +546,26 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Dotum"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -378,7 +593,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -596,11 +811,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -638,34 +890,12 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -680,9 +910,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -709,29 +936,63 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -943,28 +1204,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG992"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AG988"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="27.88671875" customWidth="1"/>
-    <col min="3" max="3" width="38.44140625" customWidth="1"/>
-    <col min="4" max="4" width="111.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.5546875" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" customWidth="1"/>
+    <col min="3" max="3" width="97.140625" customWidth="1"/>
+    <col min="4" max="4" width="115.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
     <col min="7" max="7" width="19" hidden="1" customWidth="1"/>
-    <col min="8" max="9" width="24.109375" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="18.109375" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="24.140625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
-    <col min="12" max="12" width="26.88671875" customWidth="1"/>
+    <col min="12" max="12" width="26.85546875" customWidth="1"/>
     <col min="13" max="13" width="44" customWidth="1"/>
-    <col min="14" max="14" width="13.88671875" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" hidden="1" customWidth="1"/>
     <col min="15" max="16" width="20" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1005,22 +1266,22 @@
     </row>
     <row r="2" spans="1:33" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="20"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="32"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -1042,20 +1303,20 @@
     </row>
     <row r="3" spans="1:33" ht="19.5" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="23"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="35"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -1203,13 +1464,13 @@
       <c r="F7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="26"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="38"/>
       <c r="L7" s="5" t="s">
         <v>19</v>
       </c>
@@ -1244,29 +1505,29 @@
       <c r="AG7" s="1"/>
     </row>
     <row r="8" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="29">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="17">
         <v>43854</v>
       </c>
-      <c r="H8" s="29">
+      <c r="H8" s="17">
         <v>43858</v>
       </c>
-      <c r="I8" s="29">
+      <c r="I8" s="17">
         <v>43859</v>
       </c>
-      <c r="J8" s="29">
+      <c r="J8" s="17">
         <v>43860</v>
       </c>
-      <c r="K8" s="29">
+      <c r="K8" s="17">
         <v>43861</v>
       </c>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
       <c r="N8" s="8"/>
       <c r="O8" s="9"/>
       <c r="P8" s="9"/>
@@ -1288,20 +1549,28 @@
       <c r="AF8" s="1"/>
       <c r="AG8" s="1"/>
     </row>
-    <row r="9" spans="1:33" ht="28.8" customHeight="1">
-      <c r="A9" s="30"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
+    <row r="9" spans="1:33" ht="66" customHeight="1">
+      <c r="A9" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
       <c r="N9" s="12">
         <v>1</v>
       </c>
@@ -1329,20 +1598,26 @@
       <c r="AF9" s="1"/>
       <c r="AG9" s="1"/>
     </row>
-    <row r="10" spans="1:33" ht="28.8" customHeight="1">
-      <c r="A10" s="37"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
+    <row r="10" spans="1:33" ht="54" customHeight="1">
+      <c r="A10" s="44"/>
+      <c r="B10" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
       <c r="N10" s="12">
         <v>1</v>
       </c>
@@ -1370,24 +1645,30 @@
       <c r="AF10" s="1"/>
       <c r="AG10" s="1"/>
     </row>
-    <row r="11" spans="1:33" ht="28.8" customHeight="1">
-      <c r="A11" s="37"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="27">
+    <row r="11" spans="1:33" ht="71.25" customHeight="1">
+      <c r="A11" s="44"/>
+      <c r="B11" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="15">
         <v>2</v>
       </c>
-      <c r="O11" s="15" t="s">
+      <c r="O11" s="13" t="s">
         <v>26</v>
       </c>
       <c r="P11" s="10" t="s">
@@ -1411,21 +1692,27 @@
       <c r="AF11" s="1"/>
       <c r="AG11" s="1"/>
     </row>
-    <row r="12" spans="1:33" ht="28.8" customHeight="1">
-      <c r="A12" s="37"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="37"/>
-      <c r="N12" s="27">
+    <row r="12" spans="1:33" ht="35.25" customHeight="1">
+      <c r="A12" s="44"/>
+      <c r="B12" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="15">
         <v>1</v>
       </c>
       <c r="O12" s="10" t="s">
@@ -1452,21 +1739,27 @@
       <c r="AF12" s="1"/>
       <c r="AG12" s="1"/>
     </row>
-    <row r="13" spans="1:33" ht="28.8" customHeight="1">
-      <c r="A13" s="37"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="27"/>
+    <row r="13" spans="1:33" ht="44.25" customHeight="1">
+      <c r="A13" s="44"/>
+      <c r="B13" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="15"/>
       <c r="O13" s="10"/>
       <c r="P13" s="10"/>
       <c r="Q13" s="1"/>
@@ -1487,21 +1780,27 @@
       <c r="AF13" s="1"/>
       <c r="AG13" s="1"/>
     </row>
-    <row r="14" spans="1:33" ht="28.8" customHeight="1">
-      <c r="A14" s="30"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="37"/>
-      <c r="N14" s="27"/>
+    <row r="14" spans="1:33" ht="28.9" customHeight="1">
+      <c r="A14" s="44"/>
+      <c r="B14" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="15"/>
       <c r="O14" s="10"/>
       <c r="P14" s="10"/>
       <c r="Q14" s="1"/>
@@ -1522,21 +1821,27 @@
       <c r="AF14" s="1"/>
       <c r="AG14" s="1"/>
     </row>
-    <row r="15" spans="1:33" ht="28.8" customHeight="1">
-      <c r="A15" s="30"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="27">
+    <row r="15" spans="1:33" ht="28.9" customHeight="1">
+      <c r="A15" s="44"/>
+      <c r="B15" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="15">
         <v>2</v>
       </c>
       <c r="O15" s="10" t="s">
@@ -1563,21 +1868,27 @@
       <c r="AF15" s="1"/>
       <c r="AG15" s="1"/>
     </row>
-    <row r="16" spans="1:33" ht="28.8" customHeight="1">
-      <c r="A16" s="37"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="27">
+    <row r="16" spans="1:33" ht="28.9" customHeight="1">
+      <c r="A16" s="44"/>
+      <c r="B16" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="15">
         <v>1</v>
       </c>
       <c r="O16" s="10" t="s">
@@ -1604,21 +1915,27 @@
       <c r="AF16" s="1"/>
       <c r="AG16" s="1"/>
     </row>
-    <row r="17" spans="1:33" ht="28.8" customHeight="1">
-      <c r="A17" s="37"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="27">
+    <row r="17" spans="1:33" ht="28.9" customHeight="1">
+      <c r="A17" s="45"/>
+      <c r="B17" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="15">
         <v>1</v>
       </c>
       <c r="O17" s="10" t="s">
@@ -1645,29 +1962,31 @@
       <c r="AF17" s="1"/>
       <c r="AG17" s="1"/>
     </row>
-    <row r="18" spans="1:33" ht="28.8" customHeight="1">
-      <c r="A18" s="37"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="27">
-        <v>2</v>
-      </c>
-      <c r="O18" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="P18" s="10" t="s">
-        <v>37</v>
-      </c>
+    <row r="18" spans="1:33" ht="28.9" customHeight="1">
+      <c r="A18" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
@@ -1686,29 +2005,29 @@
       <c r="AF18" s="1"/>
       <c r="AG18" s="1"/>
     </row>
-    <row r="19" spans="1:33" ht="28.8" customHeight="1">
-      <c r="A19" s="37"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="27">
-        <v>1</v>
-      </c>
-      <c r="O19" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="P19" s="10" t="s">
-        <v>39</v>
-      </c>
+    <row r="19" spans="1:33" ht="28.9" customHeight="1">
+      <c r="A19" s="49"/>
+      <c r="B19" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
@@ -1727,28 +2046,34 @@
       <c r="AF19" s="1"/>
       <c r="AG19" s="1"/>
     </row>
-    <row r="20" spans="1:33" ht="28.8" customHeight="1">
-      <c r="A20" s="30"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="37"/>
-      <c r="N20" s="27">
+    <row r="20" spans="1:33" ht="28.9" customHeight="1">
+      <c r="A20" s="49"/>
+      <c r="B20" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="15">
         <v>2</v>
       </c>
       <c r="O20" s="10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P20" s="10" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
@@ -1768,28 +2093,34 @@
       <c r="AF20" s="1"/>
       <c r="AG20" s="1"/>
     </row>
-    <row r="21" spans="1:33" ht="28.8" customHeight="1">
-      <c r="A21" s="30"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="37"/>
-      <c r="N21" s="27">
-        <v>2</v>
+    <row r="21" spans="1:33" ht="28.9" customHeight="1">
+      <c r="A21" s="49"/>
+      <c r="B21" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="15">
+        <v>1</v>
       </c>
       <c r="O21" s="10" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="P21" s="10" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
@@ -1809,28 +2140,34 @@
       <c r="AF21" s="1"/>
       <c r="AG21" s="1"/>
     </row>
-    <row r="22" spans="1:33" ht="28.8" customHeight="1">
-      <c r="A22" s="37"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="37"/>
-      <c r="N22" s="27">
-        <v>1</v>
+    <row r="22" spans="1:33" ht="28.9" customHeight="1">
+      <c r="A22" s="49"/>
+      <c r="B22" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="15">
+        <v>2</v>
       </c>
       <c r="O22" s="10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="P22" s="10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
@@ -1850,25 +2187,35 @@
       <c r="AF22" s="1"/>
       <c r="AG22" s="1"/>
     </row>
-    <row r="23" spans="1:33" ht="28.8" customHeight="1">
-      <c r="A23" s="37"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="37"/>
-      <c r="N23" s="27">
-        <v>3</v>
-      </c>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
+    <row r="23" spans="1:33" ht="28.9" customHeight="1">
+      <c r="A23" s="49"/>
+      <c r="B23" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="15">
+        <v>2</v>
+      </c>
+      <c r="O23" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="P23" s="10" t="s">
+        <v>43</v>
+      </c>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
@@ -1887,28 +2234,34 @@
       <c r="AF23" s="1"/>
       <c r="AG23" s="1"/>
     </row>
-    <row r="24" spans="1:33" ht="28.8" customHeight="1">
-      <c r="A24" s="37"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="47"/>
-      <c r="M24" s="40"/>
-      <c r="N24" s="27">
+    <row r="24" spans="1:33" ht="28.9" customHeight="1">
+      <c r="A24" s="49"/>
+      <c r="B24" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24" s="29"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="15">
         <v>1</v>
       </c>
-      <c r="O24" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="P24" s="11" t="s">
-        <v>47</v>
+      <c r="O24" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="P24" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
@@ -1928,26 +2281,30 @@
       <c r="AF24" s="1"/>
       <c r="AG24" s="1"/>
     </row>
-    <row r="25" spans="1:33" ht="28.8" customHeight="1">
-      <c r="A25" s="37"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="40"/>
-      <c r="N25" s="27">
+    <row r="25" spans="1:33" ht="28.9" customHeight="1">
+      <c r="A25" s="50"/>
+      <c r="B25" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="E25" s="28"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="15">
         <v>3</v>
       </c>
-      <c r="O25" s="11" t="s">
-        <v>48</v>
-      </c>
+      <c r="O25" s="10"/>
       <c r="P25" s="10"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
@@ -1967,27 +2324,17 @@
       <c r="AF25" s="1"/>
       <c r="AG25" s="1"/>
     </row>
-    <row r="26" spans="1:33" ht="28.8" customHeight="1">
-      <c r="A26" s="37"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="47"/>
-      <c r="M26" s="37"/>
-      <c r="N26" s="27">
-        <v>3</v>
-      </c>
-      <c r="O26" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="P26" s="14"/>
+    <row r="26" spans="1:33" ht="15.75" customHeight="1">
+      <c r="A26" s="1"/>
+      <c r="B26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
@@ -2006,27 +2353,17 @@
       <c r="AF26" s="1"/>
       <c r="AG26" s="1"/>
     </row>
-    <row r="27" spans="1:33" ht="28.8" customHeight="1">
-      <c r="A27" s="37"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="47"/>
-      <c r="M27" s="37"/>
-      <c r="N27" s="27">
-        <v>3</v>
-      </c>
-      <c r="O27" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="P27" s="16"/>
+    <row r="27" spans="1:33" ht="15.75" customHeight="1">
+      <c r="A27" s="1"/>
+      <c r="B27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
@@ -2045,27 +2382,20 @@
       <c r="AF27" s="1"/>
       <c r="AG27" s="1"/>
     </row>
-    <row r="28" spans="1:33" ht="28.8" customHeight="1">
-      <c r="A28" s="37"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="47"/>
-      <c r="M28" s="37"/>
-      <c r="N28" s="27">
-        <v>3</v>
-      </c>
-      <c r="O28" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="P28" s="16"/>
+    <row r="28" spans="1:33" ht="15.75" customHeight="1">
+      <c r="A28" s="1"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
@@ -2084,25 +2414,23 @@
       <c r="AF28" s="1"/>
       <c r="AG28" s="1"/>
     </row>
-    <row r="29" spans="1:33" ht="28.8" customHeight="1">
-      <c r="A29" s="37"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="47"/>
-      <c r="M29" s="37"/>
-      <c r="N29" s="27">
-        <v>3</v>
-      </c>
-      <c r="O29" s="16"/>
-      <c r="P29" s="16"/>
+    <row r="29" spans="1:33" ht="15.75" customHeight="1">
+      <c r="A29" s="1"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
@@ -2124,11 +2452,15 @@
     <row r="30" spans="1:33" ht="15.75" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
       <c r="E30" s="2"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="M30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="1"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
@@ -2153,11 +2485,19 @@
     <row r="31" spans="1:33" ht="15.75" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
       <c r="E31" s="2"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="M31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K31" s="1"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="1"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
@@ -2189,6 +2529,11 @@
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
+      <c r="J32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K32" s="1"/>
+      <c r="L32" s="2"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
@@ -2221,9 +2566,11 @@
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="1"/>
+      <c r="J33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K33" s="1"/>
+      <c r="L33" s="2"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
@@ -2256,7 +2603,11 @@
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
-      <c r="L34" s="17"/>
+      <c r="J34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K34" s="1"/>
+      <c r="L34" s="2"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
@@ -2290,7 +2641,7 @@
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K35" s="1"/>
       <c r="L35" s="2"/>
@@ -2326,11 +2677,9 @@
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
-      <c r="J36" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K36" s="1"/>
-      <c r="L36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
@@ -2363,11 +2712,9 @@
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
-      <c r="J37" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K37" s="1"/>
-      <c r="L37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
@@ -2400,11 +2747,9 @@
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
-      <c r="J38" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K38" s="1"/>
-      <c r="L38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="1"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
@@ -2437,11 +2782,9 @@
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
-      <c r="J39" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K39" s="1"/>
-      <c r="L39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
@@ -9044,146 +9387,10 @@
       <c r="AF227" s="1"/>
       <c r="AG227" s="1"/>
     </row>
-    <row r="228" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A228" s="1"/>
-      <c r="B228" s="2"/>
-      <c r="C228" s="1"/>
-      <c r="D228" s="1"/>
-      <c r="E228" s="2"/>
-      <c r="F228" s="2"/>
-      <c r="G228" s="2"/>
-      <c r="H228" s="2"/>
-      <c r="I228" s="2"/>
-      <c r="J228" s="2"/>
-      <c r="K228" s="2"/>
-      <c r="L228" s="1"/>
-      <c r="M228" s="1"/>
-      <c r="N228" s="1"/>
-      <c r="O228" s="1"/>
-      <c r="P228" s="1"/>
-      <c r="Q228" s="1"/>
-      <c r="R228" s="1"/>
-      <c r="S228" s="1"/>
-      <c r="T228" s="1"/>
-      <c r="U228" s="1"/>
-      <c r="V228" s="1"/>
-      <c r="W228" s="1"/>
-      <c r="X228" s="1"/>
-      <c r="Y228" s="1"/>
-      <c r="Z228" s="1"/>
-      <c r="AA228" s="1"/>
-      <c r="AB228" s="1"/>
-      <c r="AC228" s="1"/>
-      <c r="AD228" s="1"/>
-      <c r="AE228" s="1"/>
-      <c r="AF228" s="1"/>
-      <c r="AG228" s="1"/>
-    </row>
-    <row r="229" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A229" s="1"/>
-      <c r="B229" s="2"/>
-      <c r="C229" s="1"/>
-      <c r="D229" s="1"/>
-      <c r="E229" s="2"/>
-      <c r="F229" s="2"/>
-      <c r="G229" s="2"/>
-      <c r="H229" s="2"/>
-      <c r="I229" s="2"/>
-      <c r="J229" s="2"/>
-      <c r="K229" s="2"/>
-      <c r="L229" s="1"/>
-      <c r="M229" s="1"/>
-      <c r="N229" s="1"/>
-      <c r="O229" s="1"/>
-      <c r="P229" s="1"/>
-      <c r="Q229" s="1"/>
-      <c r="R229" s="1"/>
-      <c r="S229" s="1"/>
-      <c r="T229" s="1"/>
-      <c r="U229" s="1"/>
-      <c r="V229" s="1"/>
-      <c r="W229" s="1"/>
-      <c r="X229" s="1"/>
-      <c r="Y229" s="1"/>
-      <c r="Z229" s="1"/>
-      <c r="AA229" s="1"/>
-      <c r="AB229" s="1"/>
-      <c r="AC229" s="1"/>
-      <c r="AD229" s="1"/>
-      <c r="AE229" s="1"/>
-      <c r="AF229" s="1"/>
-      <c r="AG229" s="1"/>
-    </row>
-    <row r="230" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A230" s="1"/>
-      <c r="B230" s="2"/>
-      <c r="C230" s="1"/>
-      <c r="D230" s="1"/>
-      <c r="E230" s="2"/>
-      <c r="F230" s="2"/>
-      <c r="G230" s="2"/>
-      <c r="H230" s="2"/>
-      <c r="I230" s="2"/>
-      <c r="J230" s="2"/>
-      <c r="K230" s="2"/>
-      <c r="L230" s="1"/>
-      <c r="M230" s="1"/>
-      <c r="N230" s="1"/>
-      <c r="O230" s="1"/>
-      <c r="P230" s="1"/>
-      <c r="Q230" s="1"/>
-      <c r="R230" s="1"/>
-      <c r="S230" s="1"/>
-      <c r="T230" s="1"/>
-      <c r="U230" s="1"/>
-      <c r="V230" s="1"/>
-      <c r="W230" s="1"/>
-      <c r="X230" s="1"/>
-      <c r="Y230" s="1"/>
-      <c r="Z230" s="1"/>
-      <c r="AA230" s="1"/>
-      <c r="AB230" s="1"/>
-      <c r="AC230" s="1"/>
-      <c r="AD230" s="1"/>
-      <c r="AE230" s="1"/>
-      <c r="AF230" s="1"/>
-      <c r="AG230" s="1"/>
-    </row>
-    <row r="231" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A231" s="1"/>
-      <c r="B231" s="2"/>
-      <c r="C231" s="1"/>
-      <c r="D231" s="1"/>
-      <c r="E231" s="2"/>
-      <c r="F231" s="2"/>
-      <c r="G231" s="2"/>
-      <c r="H231" s="2"/>
-      <c r="I231" s="2"/>
-      <c r="J231" s="2"/>
-      <c r="K231" s="2"/>
-      <c r="L231" s="1"/>
-      <c r="M231" s="1"/>
-      <c r="N231" s="1"/>
-      <c r="O231" s="1"/>
-      <c r="P231" s="1"/>
-      <c r="Q231" s="1"/>
-      <c r="R231" s="1"/>
-      <c r="S231" s="1"/>
-      <c r="T231" s="1"/>
-      <c r="U231" s="1"/>
-      <c r="V231" s="1"/>
-      <c r="W231" s="1"/>
-      <c r="X231" s="1"/>
-      <c r="Y231" s="1"/>
-      <c r="Z231" s="1"/>
-      <c r="AA231" s="1"/>
-      <c r="AB231" s="1"/>
-      <c r="AC231" s="1"/>
-      <c r="AD231" s="1"/>
-      <c r="AE231" s="1"/>
-      <c r="AF231" s="1"/>
-      <c r="AG231" s="1"/>
-    </row>
+    <row r="228" spans="1:33" ht="15.75" customHeight="1"/>
+    <row r="229" spans="1:33" ht="15.75" customHeight="1"/>
+    <row r="230" spans="1:33" ht="15.75" customHeight="1"/>
+    <row r="231" spans="1:33" ht="15.75" customHeight="1"/>
     <row r="232" spans="1:33" ht="15.75" customHeight="1"/>
     <row r="233" spans="1:33" ht="15.75" customHeight="1"/>
     <row r="234" spans="1:33" ht="15.75" customHeight="1"/>
@@ -9941,15 +10148,13 @@
     <row r="986" ht="15.75" customHeight="1"/>
     <row r="987" ht="15.75" customHeight="1"/>
     <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A7:P29"/>
-  <mergeCells count="2">
+  <autoFilter ref="A7:P25" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <mergeCells count="4">
+    <mergeCell ref="A18:A25"/>
     <mergeCell ref="B2:O3"/>
     <mergeCell ref="G7:K7"/>
+    <mergeCell ref="A9:A17"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -9958,7 +10163,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -9966,14 +10171,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="14.44140625" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
-    <col min="4" max="6" width="14.44140625" customWidth="1"/>
+    <col min="1" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="6" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="13.2">
+    <row r="2" spans="2:3" ht="12.75">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -9981,7 +10186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="13.2">
+    <row r="3" spans="2:3" ht="12.75">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -9989,7 +10194,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="13.2">
+    <row r="4" spans="2:3" ht="12.75">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -9997,7 +10202,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="13.2">
+    <row r="5" spans="2:3" ht="12.75">
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
@@ -10005,7 +10210,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="13.2">
+    <row r="6" spans="2:3" ht="12.75">
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
